--- a/PPA2/ProjectValCSVs/PPA_TemplateTEST.xlsx
+++ b/PPA2/ProjectValCSVs/PPA_TemplateTEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\ProjectValCSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30491BC-A1AA-4255-B428-B1DA9D3F55D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C94071-27F7-459C-AAAF-A203278763A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+  <si>
+    <t>Test text description about first chart on page</t>
+  </si>
+  <si>
+    <t>Test text description about second chart on page</t>
+  </si>
+  <si>
+    <t>This is test text description of chart on the next page</t>
+  </si>
+  <si>
+    <t>data_item</t>
+  </si>
   <si>
     <t>projval_2016</t>
   </si>
@@ -125,6 +137,9 @@
     <t>FATAL_COLLISNS_PER_100MVMT</t>
   </si>
   <si>
+    <t>PCT_FATAL_COLLISNS</t>
+  </si>
+  <si>
     <t>BIKEPED_COLLISNS</t>
   </si>
   <si>
@@ -134,19 +149,13 @@
     <t>PCT_BIKEPED_COLLISNS</t>
   </si>
   <si>
-    <t>complete_strt_idx</t>
-  </si>
-  <si>
-    <t>project_length</t>
-  </si>
-  <si>
-    <t>overlap with STAATruckRoutes</t>
+    <t>complete_street_score</t>
   </si>
   <si>
     <t>pct_proj_STAATruckRoutes</t>
   </si>
   <si>
-    <t>pct_truck_aadt</t>
+    <t>Trk_Veh_Pc_proj</t>
   </si>
   <si>
     <t>total_net_pcl_acres</t>
@@ -161,7 +170,88 @@
     <t>Intersxn_34_per_acre</t>
   </si>
   <si>
-    <t>SegmentSpeedData</t>
+    <t>NORTHBOUND_calc_len</t>
+  </si>
+  <si>
+    <t>NORTHBOUNDff_speed</t>
+  </si>
+  <si>
+    <t>NORTHBOUNDhavg_spd_worst4hrs</t>
+  </si>
+  <si>
+    <t>NORTHBOUNDlottr_ampk</t>
+  </si>
+  <si>
+    <t>NORTHBOUNDlottr_midday</t>
+  </si>
+  <si>
+    <t>NORTHBOUNDlottr_pmpk</t>
+  </si>
+  <si>
+    <t>NORTHBOUNDlottr_wknd</t>
+  </si>
+  <si>
+    <t>SOUTHBOUND_calc_len</t>
+  </si>
+  <si>
+    <t>SOUTHBOUNDff_speed</t>
+  </si>
+  <si>
+    <t>SOUTHBOUNDhavg_spd_worst4hrs</t>
+  </si>
+  <si>
+    <t>SOUTHBOUNDlottr_ampk</t>
+  </si>
+  <si>
+    <t>SOUTHBOUNDlottr_midday</t>
+  </si>
+  <si>
+    <t>SOUTHBOUNDlottr_pmpk</t>
+  </si>
+  <si>
+    <t>SOUTHBOUNDlottr_wknd</t>
+  </si>
+  <si>
+    <t>EASTBOUND_calc_len</t>
+  </si>
+  <si>
+    <t>EASTBOUNDff_speed</t>
+  </si>
+  <si>
+    <t>EASTBOUNDhavg_spd_worst4hrs</t>
+  </si>
+  <si>
+    <t>EASTBOUNDlottr_ampk</t>
+  </si>
+  <si>
+    <t>EASTBOUNDlottr_midday</t>
+  </si>
+  <si>
+    <t>EASTBOUNDlottr_pmpk</t>
+  </si>
+  <si>
+    <t>EASTBOUNDlottr_wknd</t>
+  </si>
+  <si>
+    <t>WESTBOUND_calc_len</t>
+  </si>
+  <si>
+    <t>WESTBOUNDff_speed</t>
+  </si>
+  <si>
+    <t>WESTBOUNDhavg_spd_worst4hrs</t>
+  </si>
+  <si>
+    <t>WESTBOUNDlottr_ampk</t>
+  </si>
+  <si>
+    <t>WESTBOUNDlottr_midday</t>
+  </si>
+  <si>
+    <t>WESTBOUNDlottr_pmpk</t>
+  </si>
+  <si>
+    <t>WESTBOUNDlottr_wknd</t>
   </si>
   <si>
     <t>TrnVehStop_Acre</t>
@@ -324,27 +414,16 @@
   </si>
   <si>
     <t>nat_resource_acres</t>
-  </si>
-  <si>
-    <t>PCT_FATAL_COLLISNS</t>
-  </si>
-  <si>
-    <t>Test text description about first chart on page</t>
-  </si>
-  <si>
-    <t>Test text description about second chart on page</t>
-  </si>
-  <si>
-    <t>This is test text description of chart on the next page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -825,11 +904,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -971,11 +1054,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>import!$A$64</c:f>
+              <c:f>import!$A$88</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DU_TOT</c:v>
+                  <c:v>POP_TOT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1063,22 +1146,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>import!$B$64:$C$64</c:f>
+              <c:f>import!$B$88:$C$88</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8057</c:v>
+                  <c:v>9547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14977.317862129999</c:v>
+                  <c:v>20414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F54-419B-8634-D1132434B76C}"/>
+              <c16:uniqueId val="{00000000-AE5B-4CDB-B8C1-A06FFC3AAC86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1087,11 +1170,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>import!$A$65</c:f>
+              <c:f>import!$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EMPTOT</c:v>
+                  <c:v>DU_TOT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1179,22 +1262,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>import!$B$65:$C$65</c:f>
+              <c:f>import!$B$89:$C$89</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>83638.109999999695</c:v>
+                  <c:v>8057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89060.149999999703</c:v>
+                  <c:v>14977.317862130019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9F54-419B-8634-D1132434B76C}"/>
+              <c16:uniqueId val="{00000001-AE5B-4CDB-B8C1-A06FFC3AAC86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1482,11 +1565,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>import!$A$26</c:f>
+              <c:f>import!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCT_BIKEPED_COLLISNS</c:v>
+                  <c:v> PCT_FATAL_COLLISNS </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1560,7 +1643,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(import!$B$1,import!$D$1,import!$E$1)</c:f>
+              <c:f>(import!$B$1,import!$D$1:$E$1)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1577,25 +1660,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(import!$B$26,import!$D$26:$E$26)</c:f>
+              <c:f>(import!$B$24,import!$D$24:$E$24)</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.34090909090909</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18221330658642501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.122191930207197</c:v>
+                  <c:v>2.2727272727272731E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-501A-4240-B0F9-6CFF2713F7EA}"/>
+              <c16:uniqueId val="{00000000-7010-4F29-BE0A-DC36A29F87C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1608,7 +1685,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCT_FATAL_COLLISNS</c:v>
+                  <c:v>PCT_BIKEPED_COLLISNS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1682,7 +1759,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(import!$B$1,import!$D$1,import!$E$1)</c:f>
+              <c:f>(import!$B$1,import!$D$1:$E$1)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1704,20 +1781,20 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.2727272727272728E-2</c:v>
+                  <c:v>0.34090909090909088</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3553995319291209E-3</c:v>
+                  <c:v>0.18221330658642601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0229007633587787E-2</c:v>
+                  <c:v>0.1221919302071974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-501A-4240-B0F9-6CFF2713F7EA}"/>
+              <c16:uniqueId val="{00000001-7010-4F29-BE0A-DC36A29F87C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2062,6 +2139,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Project</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2072,22 +2152,79 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>import!$A$8:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>WALKDESTSalljob</c:v>
+                  <c:v> WALKDESTSalljob </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BIKEDESTSalljob</c:v>
+                  <c:v> BIKEDESTSalljob </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AUTODESTSalljob</c:v>
+                  <c:v> AUTODESTSalljob </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TRANDESTSalljob</c:v>
+                  <c:v> TRANDESTSalljob </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2096,32 +2233,35 @@
             <c:numRef>
               <c:f>import!$B$8:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>92854.563555555505</c:v>
+                  <c:v>92854.563555555549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>207146.58451851801</c:v>
+                  <c:v>207146.5845185185</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>757689.54114814801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>191657.224259259</c:v>
+                  <c:v>191657.2242592593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC7B-41CC-A7EF-8C9DE440D9AB}"/>
+              <c16:uniqueId val="{00000000-892B-4BC5-8EB9-CDF8E4686D75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Ctype</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -2132,22 +2272,79 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>import!$A$8:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>WALKDESTSalljob</c:v>
+                  <c:v> WALKDESTSalljob </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BIKEDESTSalljob</c:v>
+                  <c:v> BIKEDESTSalljob </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AUTODESTSalljob</c:v>
+                  <c:v> AUTODESTSalljob </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TRANDESTSalljob</c:v>
+                  <c:v> TRANDESTSalljob </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2156,32 +2353,35 @@
             <c:numRef>
               <c:f>import!$D$8:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>64913.702561223799</c:v>
+                  <c:v>64913.702561223843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213458.712808663</c:v>
+                  <c:v>213458.71280866361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>775596.88072927902</c:v>
+                  <c:v>775596.88072927925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>163632.287794987</c:v>
+                  <c:v>163632.28779498761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC7B-41CC-A7EF-8C9DE440D9AB}"/>
+              <c16:uniqueId val="{00000001-892B-4BC5-8EB9-CDF8E4686D75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Region</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -2192,22 +2392,79 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>import!$A$8:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>WALKDESTSalljob</c:v>
+                  <c:v> WALKDESTSalljob </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BIKEDESTSalljob</c:v>
+                  <c:v> BIKEDESTSalljob </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AUTODESTSalljob</c:v>
+                  <c:v> AUTODESTSalljob </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TRANDESTSalljob</c:v>
+                  <c:v> TRANDESTSalljob </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2216,26 +2473,26 @@
             <c:numRef>
               <c:f>import!$E$8:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3842.4108777193601</c:v>
+                  <c:v>3842.410877719361</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>37354.023709342597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>475047.24569611403</c:v>
+                  <c:v>475047.24569611409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22213.193547074599</c:v>
+                  <c:v>22213.193547074628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC7B-41CC-A7EF-8C9DE440D9AB}"/>
+              <c16:uniqueId val="{00000002-892B-4BC5-8EB9-CDF8E4686D75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2324,7 +2581,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4490,62 +4747,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>17000</v>
@@ -4553,7 +4813,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -4561,7 +4821,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -4569,195 +4829,195 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
+      <c r="A8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>92854.563555555505</v>
+        <v>92854.563555555549</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>64913.702561223799</v>
+        <v>64913.702561223843</v>
       </c>
       <c r="E8" s="2">
-        <v>3842.4108777193601</v>
+        <v>3842.410877719361</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
+      <c r="A9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>207146.58451851801</v>
+        <v>207146.5845185185</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>213458.712808663</v>
+        <v>213458.71280866361</v>
       </c>
       <c r="E9" s="2">
         <v>37354.023709342597</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
+      <c r="A10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>757689.54114814801</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>775596.88072927902</v>
+        <v>775596.88072927925</v>
       </c>
       <c r="E10" s="2">
-        <v>475047.24569611403</v>
+        <v>475047.24569611409</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
+      <c r="A11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>191657.224259259</v>
+        <v>191657.2242592593</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>163632.287794987</v>
+        <v>163632.28779498761</v>
       </c>
       <c r="E11" s="2">
-        <v>22213.193547074599</v>
+        <v>22213.193547074628</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
+      <c r="A12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>16.790111111111099</v>
+        <v>16.790111111111109</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>15.148187138222699</v>
+        <v>15.14818713822276</v>
       </c>
       <c r="E12" s="2">
-        <v>4.6382414187566896</v>
+        <v>4.6382414187566914</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
+      <c r="A13" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="2">
-        <v>110.216851851851</v>
+        <v>110.2168518518519</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>116.927955282742</v>
+        <v>116.9279552827428</v>
       </c>
       <c r="E13" s="2">
         <v>38.186082797940898</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
+      <c r="A14" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="2">
-        <v>791.57796296296203</v>
+        <v>791.57796296296294</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>822.95409325106505</v>
+        <v>822.9540932510655</v>
       </c>
       <c r="E14" s="2">
-        <v>492.55290133648498</v>
+        <v>492.55290133648589</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2">
-        <v>87.850925925925907</v>
+        <v>87.850925925925921</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>67.712183067234903</v>
       </c>
       <c r="E15" s="2">
-        <v>19.4606584204593</v>
+        <v>19.46065842045931</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
+      <c r="A16" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>96.717851851851805</v>
+        <v>96.717851851851847</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>84.084850518414797</v>
+        <v>84.084850518414882</v>
       </c>
       <c r="E16" s="2">
-        <v>17.1471982764354</v>
+        <v>17.147198276435411</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
+      <c r="A17" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="2">
-        <v>461.61322222222202</v>
+        <v>461.61322222222219</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>485.22723490871999</v>
+        <v>485.22723490872079</v>
       </c>
       <c r="E17" s="2">
         <v>140.10012353515299</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
+      <c r="A18" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>1143.1629629629599</v>
+        <v>1143.1629629629631</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>1297.87278162966</v>
+        <v>1297.8727816296671</v>
       </c>
       <c r="E18" s="2">
-        <v>520.32769799543701</v>
+        <v>520.32769799543757</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
+      <c r="A19" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>401.44440740740703</v>
+        <v>401.44440740740743</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>319.47467432097102</v>
+        <v>319.47467432097193</v>
       </c>
       <c r="E19" s="2">
-        <v>77.938922900995607</v>
+        <v>77.938922900995635</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
+      <c r="A20" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="2">
         <v>44</v>
@@ -4771,746 +5031,878 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2">
-        <v>208.593070856022</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>98.5212098314028</v>
-      </c>
-      <c r="E21" s="2">
-        <v>63.369834818958701</v>
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3">
+        <v>208.59307085602271</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>98.521209831402842</v>
+      </c>
+      <c r="E21">
+        <v>63.369834818958772</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3">
         <v>1</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
         <v>22</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>1113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4.7407516103641498</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
-        <v>0.72466286067899099</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1.2819088722919101</v>
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4.7407516103641516</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>0.72466286067899111</v>
+      </c>
+      <c r="E23">
+        <v>1.2819088722919141</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.2727272727272731E-2</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3">
         <v>15</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <v>545</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25">
         <v>6723</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2">
-        <v>19.342266570285702</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <v>3.3821897544729902</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.40140092908768099</v>
-      </c>
-    </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.34090909090909</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1">
-        <v>0.18221330658642501</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.122191930207197</v>
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4">
+        <v>19.342266570285741</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
+        <v>3.3821897544729942</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.40140092908768138</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>98</v>
+      <c r="A27" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B27" s="1">
-        <f>B22/B20</f>
-        <v>2.2727272727272728E-2</v>
+        <v>0.34090909090909088</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <f>D22/D20</f>
-        <v>7.3553995319291209E-3</v>
+        <v>0.18221330658642601</v>
       </c>
       <c r="E27" s="1">
-        <f>E22/E20</f>
-        <v>2.0229007633587787E-2</v>
+        <v>0.1221919302071974</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28">
-        <v>244.27815910455001</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>4094.6597293654099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="2">
+        <v>647.51738292440052</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>647.51738292439995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.40135303925593119</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5">
+        <v>0.37846124650969087</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1.480071598380431E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36">
-        <v>0.40135303925593102</v>
-      </c>
-      <c r="D36">
-        <v>0.37846124650968999</v>
-      </c>
-      <c r="E36">
-        <v>1.4800715983804299E-2</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37">
-        <v>-1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <v>28.324821823755201</v>
-      </c>
-      <c r="D38">
-        <v>8.4758271414273896</v>
-      </c>
-      <c r="E38">
-        <v>7.3326831678808102E-2</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>0.22328102699331601</v>
-      </c>
-      <c r="D39">
-        <v>0.218973730417927</v>
-      </c>
-      <c r="E39">
-        <v>0.10524657145350599</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41">
-        <v>133.31693286111701</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42">
-        <v>12.842644675519599</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43">
-        <v>146.15957753663699</v>
-      </c>
-      <c r="D43">
-        <v>76.496718835236805</v>
-      </c>
-      <c r="E43">
-        <v>0.38506745756398097</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44">
-        <v>3954</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45">
-        <v>5593</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46">
-        <v>0.585838483293181</v>
-      </c>
-      <c r="D46">
-        <v>0.56192450973500996</v>
-      </c>
-      <c r="E46">
-        <v>0.37463856762735798</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47">
-        <v>92854.563555555505</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48">
-        <v>207146.58451851801</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49">
+        <v>60</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="2">
+        <v>28.324821823755251</v>
+      </c>
+      <c r="D63">
+        <v>8.4758271414273931</v>
+      </c>
+      <c r="E63">
+        <v>7.332683167880813E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.22328102699331609</v>
+      </c>
+      <c r="D64">
+        <v>0.21897373041792781</v>
+      </c>
+      <c r="E64">
+        <v>0.1052465714535069</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="2">
+        <v>133.31693286111789</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="2">
+        <v>12.84264467551969</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="2">
+        <v>146.15957753663761</v>
+      </c>
+      <c r="D68">
+        <v>76.496718835236877</v>
+      </c>
+      <c r="E68">
+        <v>0.38506745756398192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="2">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.58583848329318111</v>
+      </c>
+      <c r="D71">
+        <v>0.56192450973501085</v>
+      </c>
+      <c r="E71">
+        <v>0.3746385676273582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="2">
+        <v>92854.563555555549</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="2">
+        <v>207146.5845185185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="2">
         <v>757689.54114814801</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50">
-        <v>191657.224259259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51">
-        <v>9950.0181851851794</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52">
-        <v>32086.665814814802</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53">
-        <v>166987.00055555499</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54">
-        <v>28538.282962962901</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55">
-        <v>16.790111111111099</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56">
-        <v>110.216851851851</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57">
-        <v>791.57796296296203</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58">
-        <v>87.850925925925907</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59">
-        <v>96.717851851851805</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60">
-        <v>461.61322222222202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61">
-        <v>1143.1629629629599</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62">
-        <v>401.44440740740703</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="3">
-        <v>9547</v>
-      </c>
-      <c r="C63" s="3">
-        <v>20414</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="3">
-        <v>8057</v>
-      </c>
-      <c r="C64" s="3">
-        <v>14977.317862129999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="3">
-        <v>83638.109999999695</v>
-      </c>
-      <c r="C65" s="3">
-        <v>89060.149999999703</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="3">
-        <v>0</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="3">
-        <v>444.63</v>
-      </c>
-      <c r="C67" s="3">
-        <v>85.119999999999905</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="3">
-        <v>32494</v>
-      </c>
-      <c r="C68" s="3">
-        <v>70803</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="3">
-        <v>8162</v>
-      </c>
-      <c r="C69" s="3">
-        <v>13736</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="3">
-        <v>5813</v>
-      </c>
-      <c r="C70" s="3">
-        <v>11621</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="3">
-        <v>2745</v>
-      </c>
-      <c r="C71" s="3">
-        <v>7720</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" s="3">
-        <v>3476</v>
-      </c>
-      <c r="C72" s="3">
-        <v>7145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" s="3">
-        <v>12189</v>
-      </c>
-      <c r="C73" s="3">
-        <v>30404</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" s="1">
-        <v>5.3161172580298696E-3</v>
-      </c>
-      <c r="C74" s="1">
-        <v>9.5575855194495103E-4</v>
-      </c>
-      <c r="D74">
-        <v>1.6589955364791301E-2</v>
-      </c>
-      <c r="E74">
-        <v>0.130214977692891</v>
-      </c>
-    </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" s="1">
-        <v>0.25118483412322201</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0.19400307896558</v>
+      <c r="A75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="2">
+        <v>191657.2242592593</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>83</v>
-      </c>
-      <c r="B76" s="1">
-        <v>0.17889456515048899</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0.16413146335607201</v>
+      <c r="A76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="2">
+        <v>9950.0181851851848</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="1">
-        <v>8.4477134240167395E-2</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.109034927898535</v>
+      <c r="A77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="2">
+        <v>32086.665814814809</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>85</v>
-      </c>
-      <c r="B78" s="1">
-        <v>0.10697359512525299</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.100913803087439</v>
+      <c r="A78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="2">
+        <v>166987.00055555551</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0.37511540592109299</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.42941683262008601</v>
+      <c r="A79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="2">
+        <v>28538.28296296296</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80">
-        <v>91695.109999999695</v>
-      </c>
-      <c r="C80">
-        <v>104037.46786212899</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="B80" s="2">
+        <v>16.790111111111109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>88</v>
-      </c>
-      <c r="B81">
-        <v>950.289394238206</v>
-      </c>
-      <c r="C81">
-        <v>2373.0977262046699</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="B81" s="2">
+        <v>110.2168518518519</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82">
-        <v>1.24225080975306</v>
-      </c>
-      <c r="C82">
-        <v>1.2624167558911199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="B82" s="2">
+        <v>791.57796296296294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83">
-        <v>0.22498669218744199</v>
-      </c>
-      <c r="C83">
-        <v>0.42142437760519402</v>
-      </c>
-      <c r="D83">
-        <v>0.22767566428252101</v>
-      </c>
-      <c r="E83">
-        <v>0.99998912009623397</v>
-      </c>
-      <c r="F83">
-        <v>0.35973431030552699</v>
-      </c>
-      <c r="G83">
-        <v>0.93085349575304899</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="B83" s="2">
+        <v>87.850925925925921</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84">
+        <v>96</v>
+      </c>
+      <c r="B84" s="2">
+        <v>96.717851851851847</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="2">
+        <v>461.61322222222219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1143.1629629629631</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="2">
+        <v>401.44440740740743</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="2">
+        <v>9547</v>
+      </c>
+      <c r="C88" s="2">
+        <v>20414</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" s="2">
+        <v>8057</v>
+      </c>
+      <c r="C89" s="2">
+        <v>14977.317862130019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="2">
+        <v>83638.109999999782</v>
+      </c>
+      <c r="C90" s="2">
+        <v>89060.149999999776</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="2">
+        <v>444.63000000000011</v>
+      </c>
+      <c r="C92" s="2">
+        <v>85.119999999999948</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="2">
+        <v>32494</v>
+      </c>
+      <c r="C93" s="2">
+        <v>70803</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="2">
+        <v>8162</v>
+      </c>
+      <c r="C94" s="2">
+        <v>13736</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="2">
+        <v>5813</v>
+      </c>
+      <c r="C95" s="2">
+        <v>11621</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2745</v>
+      </c>
+      <c r="C96" s="2">
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" s="2">
+        <v>3476</v>
+      </c>
+      <c r="C97" s="2">
+        <v>7145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="2">
+        <v>12189</v>
+      </c>
+      <c r="C98" s="2">
+        <v>30404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" s="1">
+        <v>5.3161172580298774E-3</v>
+      </c>
+      <c r="C99" s="1">
+        <v>9.5575855194495135E-4</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1.658995536479136E-2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0.13021497769289109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100">
+        <v>0.25118483412322268</v>
+      </c>
+      <c r="C100">
+        <v>0.19400307896558061</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101">
+        <v>0.17889456515048929</v>
+      </c>
+      <c r="C101">
+        <v>0.16413146335607251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102">
+        <v>8.4477134240167409E-2</v>
+      </c>
+      <c r="C102">
+        <v>0.1090349278985354</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103">
+        <v>0.1069735951252539</v>
+      </c>
+      <c r="C103">
+        <v>0.1009138030874398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104">
+        <v>0.3751154059210931</v>
+      </c>
+      <c r="C104">
+        <v>0.42941683262008667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="2">
+        <v>91695.109999999782</v>
+      </c>
+      <c r="C105" s="2">
+        <v>104037.46786212979</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106">
+        <v>950.28939423820657</v>
+      </c>
+      <c r="C106">
+        <v>2373.0977262046781</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107">
+        <v>1.242250809753066</v>
+      </c>
+      <c r="C107">
+        <v>1.2624167558911259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="5">
+        <v>0.22498669218744211</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0.42142437760519452</v>
+      </c>
+      <c r="D108" s="5">
+        <v>0.22767566428252109</v>
+      </c>
+      <c r="E108" s="5">
+        <v>0.99998912009623475</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0.35973431030552788</v>
+      </c>
+      <c r="G108" s="5">
+        <v>0.93085349575304976</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="2">
         <v>12248</v>
       </c>
-      <c r="C84">
-        <v>23718.891864799902</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85">
+      <c r="C109" s="2">
+        <v>23718.891864799989</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="2">
         <v>426</v>
       </c>
-      <c r="C85">
-        <v>413.42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86">
+      <c r="C110" s="2">
+        <v>413.42000000000093</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="2">
         <v>2806</v>
       </c>
-      <c r="C86">
-        <v>3572.4139592399902</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87">
+      <c r="C111" s="2">
+        <v>3572.4139592399988</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="2">
         <v>1112</v>
       </c>
-      <c r="C87">
-        <v>1070.39022545999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88">
+      <c r="C112" s="2">
+        <v>1070.390225459998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="2">
         <v>2847</v>
       </c>
-      <c r="C88">
-        <v>13953.9541832499</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89">
+      <c r="C113" s="2">
+        <v>13953.954183249991</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="2">
         <v>19</v>
       </c>
-      <c r="C89">
+      <c r="C114" s="2">
         <v>14.03</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>97</v>
-      </c>
-      <c r="B90">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="6">
         <v>0</v>
       </c>
-      <c r="C90">
+      <c r="C115" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5524,19 +5916,19 @@
   <dimension ref="B4:B22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5550,15 +5942,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6214DCB8-A904-4048-8891-634DB5071E9F}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PPA2/ProjectValCSVs/PPA_TemplateTEST.xlsx
+++ b/PPA2/ProjectValCSVs/PPA_TemplateTEST.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\ProjectValCSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C94071-27F7-459C-AAAF-A203278763A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D490115-0FD4-45B0-A827-9CD751C4AEA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="750" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
     <sheet name="charts_pg1" sheetId="2" r:id="rId2"/>
     <sheet name="charts_pg2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">charts_pg1!$A$1:$H$92</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,390 +33,408 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Test text description about first chart on page</t>
   </si>
   <si>
-    <t>Test text description about second chart on page</t>
-  </si>
-  <si>
     <t>This is test text description of chart on the next page</t>
   </si>
   <si>
     <t>data_item</t>
   </si>
   <si>
+    <t>project_name</t>
+  </si>
+  <si>
+    <t>project_type</t>
+  </si>
+  <si>
+    <t>project_aadt</t>
+  </si>
+  <si>
+    <t>project_pci</t>
+  </si>
+  <si>
+    <t>project_speedlim</t>
+  </si>
+  <si>
+    <t>project_communtype</t>
+  </si>
+  <si>
+    <t>WALKDESTSalljob</t>
+  </si>
+  <si>
+    <t>BIKEDESTSalljob</t>
+  </si>
+  <si>
+    <t>AUTODESTSalljob</t>
+  </si>
+  <si>
+    <t>TRANDESTSalljob</t>
+  </si>
+  <si>
+    <t>WALKDESTSedu</t>
+  </si>
+  <si>
+    <t>BIKEDESTSedu</t>
+  </si>
+  <si>
+    <t>AUTODESTSedu</t>
+  </si>
+  <si>
+    <t>TRANDESTSedu</t>
+  </si>
+  <si>
+    <t>WALKDESTSpoi2</t>
+  </si>
+  <si>
+    <t>BIKEDESTSpoi2</t>
+  </si>
+  <si>
+    <t>AUTODESTSpoi2</t>
+  </si>
+  <si>
+    <t>TRANDESTSpoi2</t>
+  </si>
+  <si>
+    <t>TOT_COLLISNS</t>
+  </si>
+  <si>
+    <t>TOT_COLLISNS_PER_100MVMT</t>
+  </si>
+  <si>
+    <t>FATAL_COLLISNS</t>
+  </si>
+  <si>
+    <t>FATAL_COLLISNS_PER_100MVMT</t>
+  </si>
+  <si>
+    <t>PCT_FATAL_COLLISNS</t>
+  </si>
+  <si>
+    <t>BIKEPED_COLLISNS</t>
+  </si>
+  <si>
+    <t>BIKEPED_COLLISNS_PER_CLMILE</t>
+  </si>
+  <si>
+    <t>PCT_BIKEPED_COLLISNS</t>
+  </si>
+  <si>
+    <t>complete_street_score</t>
+  </si>
+  <si>
+    <t>pct_proj_STAATruckRoutes</t>
+  </si>
+  <si>
+    <t>Trk_Veh_Pc_proj</t>
+  </si>
+  <si>
+    <t>total_net_pcl_acres</t>
+  </si>
+  <si>
+    <t>net_Agriculture_acres</t>
+  </si>
+  <si>
+    <t>pct_Agriculture_inbuff</t>
+  </si>
+  <si>
+    <t>Intersxn_34_per_acre</t>
+  </si>
+  <si>
+    <t>NORTHBOUND_calc_len</t>
+  </si>
+  <si>
+    <t>NORTHBOUNDff_speed</t>
+  </si>
+  <si>
+    <t>NORTHBOUNDhavg_spd_worst4hrs</t>
+  </si>
+  <si>
+    <t>NORTHBOUNDlottr_ampk</t>
+  </si>
+  <si>
+    <t>NORTHBOUNDlottr_midday</t>
+  </si>
+  <si>
+    <t>NORTHBOUNDlottr_pmpk</t>
+  </si>
+  <si>
+    <t>NORTHBOUNDlottr_wknd</t>
+  </si>
+  <si>
+    <t>SOUTHBOUND_calc_len</t>
+  </si>
+  <si>
+    <t>SOUTHBOUNDff_speed</t>
+  </si>
+  <si>
+    <t>SOUTHBOUNDhavg_spd_worst4hrs</t>
+  </si>
+  <si>
+    <t>SOUTHBOUNDlottr_ampk</t>
+  </si>
+  <si>
+    <t>SOUTHBOUNDlottr_midday</t>
+  </si>
+  <si>
+    <t>SOUTHBOUNDlottr_pmpk</t>
+  </si>
+  <si>
+    <t>SOUTHBOUNDlottr_wknd</t>
+  </si>
+  <si>
+    <t>EASTBOUND_calc_len</t>
+  </si>
+  <si>
+    <t>EASTBOUNDff_speed</t>
+  </si>
+  <si>
+    <t>EASTBOUNDhavg_spd_worst4hrs</t>
+  </si>
+  <si>
+    <t>EASTBOUNDlottr_ampk</t>
+  </si>
+  <si>
+    <t>EASTBOUNDlottr_midday</t>
+  </si>
+  <si>
+    <t>EASTBOUNDlottr_pmpk</t>
+  </si>
+  <si>
+    <t>EASTBOUNDlottr_wknd</t>
+  </si>
+  <si>
+    <t>WESTBOUND_calc_len</t>
+  </si>
+  <si>
+    <t>WESTBOUNDff_speed</t>
+  </si>
+  <si>
+    <t>WESTBOUNDhavg_spd_worst4hrs</t>
+  </si>
+  <si>
+    <t>WESTBOUNDlottr_ampk</t>
+  </si>
+  <si>
+    <t>WESTBOUNDlottr_midday</t>
+  </si>
+  <si>
+    <t>WESTBOUNDlottr_pmpk</t>
+  </si>
+  <si>
+    <t>WESTBOUNDlottr_wknd</t>
+  </si>
+  <si>
+    <t>TrnVehStop_Acre</t>
+  </si>
+  <si>
+    <t>pct_roadmi_bikeways</t>
+  </si>
+  <si>
+    <t>Project's use of existing assets</t>
+  </si>
+  <si>
+    <t>EMPTOT_NetPclAcre</t>
+  </si>
+  <si>
+    <t>DU_TOT_NetPclAcre</t>
+  </si>
+  <si>
+    <t>job_du_perNetAcre</t>
+  </si>
+  <si>
+    <t>Pop_NonEJArea</t>
+  </si>
+  <si>
+    <t>Pop_EJArea</t>
+  </si>
+  <si>
+    <t>Pct_PopEJArea</t>
+  </si>
+  <si>
+    <t>WALKDESTSalljob_EJ</t>
+  </si>
+  <si>
+    <t>BIKEDESTSalljob_EJ</t>
+  </si>
+  <si>
+    <t>AUTODESTSalljob_EJ</t>
+  </si>
+  <si>
+    <t>TRANDESTSalljob_EJ</t>
+  </si>
+  <si>
+    <t>WALKDESTSlowjobs_EJ</t>
+  </si>
+  <si>
+    <t>BIKEDESTSlowjobs_EJ</t>
+  </si>
+  <si>
+    <t>AUTODESTSlowjobs_EJ</t>
+  </si>
+  <si>
+    <t>TRANDESTSlowjob_EJ</t>
+  </si>
+  <si>
+    <t>WALKDESTSedu_EJ</t>
+  </si>
+  <si>
+    <t>BIKEDESTSedu_EJ</t>
+  </si>
+  <si>
+    <t>AUTODESTSedu_EJ</t>
+  </si>
+  <si>
+    <t>TRANDESTSedu_EJ</t>
+  </si>
+  <si>
+    <t>WALKDESTSpoi2_EJ</t>
+  </si>
+  <si>
+    <t>BIKEDESTSpoi2_EJ</t>
+  </si>
+  <si>
+    <t>AUTODESTSpoi2_EJ</t>
+  </si>
+  <si>
+    <t>TRANDESTSpoi2_EJ</t>
+  </si>
+  <si>
+    <t>POP_TOT</t>
+  </si>
+  <si>
+    <t>DU_TOT</t>
+  </si>
+  <si>
+    <t>EMPTOT</t>
+  </si>
+  <si>
+    <t>ENR_K12</t>
+  </si>
+  <si>
+    <t>EMPIND</t>
+  </si>
+  <si>
+    <t>PT_TOT_RES</t>
+  </si>
+  <si>
+    <t>SOV_TOT_RES</t>
+  </si>
+  <si>
+    <t>HOV_TOT_RES</t>
+  </si>
+  <si>
+    <t>TRN_TOT_RES</t>
+  </si>
+  <si>
+    <t>BIK_TOT_RES</t>
+  </si>
+  <si>
+    <t>WLK_TOT_RES</t>
+  </si>
+  <si>
+    <t>EMPIND_jobshare</t>
+  </si>
+  <si>
+    <t>SOV_TOT_RES_share</t>
+  </si>
+  <si>
+    <t>HOV_TOT_RES_share</t>
+  </si>
+  <si>
+    <t>TRN_TOT_RES_share</t>
+  </si>
+  <si>
+    <t>BIK_TOT_RES_share</t>
+  </si>
+  <si>
+    <t>WLK_TOT_RES_share</t>
+  </si>
+  <si>
+    <t>SUM_JOB_DU</t>
+  </si>
+  <si>
+    <t>avg_2way_trantrips</t>
+  </si>
+  <si>
+    <t>avg_2way_vehocc</t>
+  </si>
+  <si>
+    <t>mix_index</t>
+  </si>
+  <si>
+    <t>High Density</t>
+  </si>
+  <si>
+    <t>Low Density</t>
+  </si>
+  <si>
+    <t>Med-High Density</t>
+  </si>
+  <si>
+    <t>Medium Density</t>
+  </si>
+  <si>
+    <t>Mixed Use</t>
+  </si>
+  <si>
+    <t>Very Low or Rural Res Density</t>
+  </si>
+  <si>
+    <t>nat_resource_acres</t>
+  </si>
+  <si>
+    <t>PROJECT NAME</t>
+  </si>
+  <si>
+    <t>PROJECT COMMUNITY TYPE</t>
+  </si>
+  <si>
     <t>projval_2016</t>
   </si>
   <si>
     <t>projval_2040</t>
   </si>
   <si>
-    <t>Urban core_2016</t>
-  </si>
-  <si>
     <t>REGION_2016</t>
   </si>
   <si>
-    <t>Urban core_2040</t>
-  </si>
-  <si>
     <t>REGION_2040</t>
   </si>
   <si>
-    <t>project_name</t>
-  </si>
-  <si>
-    <t>test_project_urbancore</t>
-  </si>
-  <si>
-    <t>project_type</t>
-  </si>
-  <si>
-    <t>Arterial</t>
-  </si>
-  <si>
-    <t>project_aadt</t>
-  </si>
-  <si>
-    <t>project_pci</t>
-  </si>
-  <si>
-    <t>project_speedlim</t>
-  </si>
-  <si>
-    <t>project_communtype</t>
-  </si>
-  <si>
-    <t>Urban core</t>
-  </si>
-  <si>
-    <t>WALKDESTSalljob</t>
-  </si>
-  <si>
-    <t>BIKEDESTSalljob</t>
-  </si>
-  <si>
-    <t>AUTODESTSalljob</t>
-  </si>
-  <si>
-    <t>TRANDESTSalljob</t>
-  </si>
-  <si>
-    <t>WALKDESTSedu</t>
-  </si>
-  <si>
-    <t>BIKEDESTSedu</t>
-  </si>
-  <si>
-    <t>AUTODESTSedu</t>
-  </si>
-  <si>
-    <t>TRANDESTSedu</t>
-  </si>
-  <si>
-    <t>WALKDESTSpoi2</t>
-  </si>
-  <si>
-    <t>BIKEDESTSpoi2</t>
-  </si>
-  <si>
-    <t>AUTODESTSpoi2</t>
-  </si>
-  <si>
-    <t>TRANDESTSpoi2</t>
-  </si>
-  <si>
-    <t>TOT_COLLISNS</t>
-  </si>
-  <si>
-    <t>TOT_COLLISNS_PER_100MVMT</t>
-  </si>
-  <si>
-    <t>FATAL_COLLISNS</t>
-  </si>
-  <si>
-    <t>FATAL_COLLISNS_PER_100MVMT</t>
-  </si>
-  <si>
-    <t>PCT_FATAL_COLLISNS</t>
-  </si>
-  <si>
-    <t>BIKEPED_COLLISNS</t>
-  </si>
-  <si>
-    <t>BIKEPED_COLLISNS_PER_CLMILE</t>
-  </si>
-  <si>
-    <t>PCT_BIKEPED_COLLISNS</t>
-  </si>
-  <si>
-    <t>complete_street_score</t>
-  </si>
-  <si>
-    <t>pct_proj_STAATruckRoutes</t>
-  </si>
-  <si>
-    <t>Trk_Veh_Pc_proj</t>
-  </si>
-  <si>
-    <t>total_net_pcl_acres</t>
-  </si>
-  <si>
-    <t>net_Agriculture_acres</t>
-  </si>
-  <si>
-    <t>pct_Agriculture_inbuff</t>
-  </si>
-  <si>
-    <t>Intersxn_34_per_acre</t>
-  </si>
-  <si>
-    <t>NORTHBOUND_calc_len</t>
-  </si>
-  <si>
-    <t>NORTHBOUNDff_speed</t>
-  </si>
-  <si>
-    <t>NORTHBOUNDhavg_spd_worst4hrs</t>
-  </si>
-  <si>
-    <t>NORTHBOUNDlottr_ampk</t>
-  </si>
-  <si>
-    <t>NORTHBOUNDlottr_midday</t>
-  </si>
-  <si>
-    <t>NORTHBOUNDlottr_pmpk</t>
-  </si>
-  <si>
-    <t>NORTHBOUNDlottr_wknd</t>
-  </si>
-  <si>
-    <t>SOUTHBOUND_calc_len</t>
-  </si>
-  <si>
-    <t>SOUTHBOUNDff_speed</t>
-  </si>
-  <si>
-    <t>SOUTHBOUNDhavg_spd_worst4hrs</t>
-  </si>
-  <si>
-    <t>SOUTHBOUNDlottr_ampk</t>
-  </si>
-  <si>
-    <t>SOUTHBOUNDlottr_midday</t>
-  </si>
-  <si>
-    <t>SOUTHBOUNDlottr_pmpk</t>
-  </si>
-  <si>
-    <t>SOUTHBOUNDlottr_wknd</t>
-  </si>
-  <si>
-    <t>EASTBOUND_calc_len</t>
-  </si>
-  <si>
-    <t>EASTBOUNDff_speed</t>
-  </si>
-  <si>
-    <t>EASTBOUNDhavg_spd_worst4hrs</t>
-  </si>
-  <si>
-    <t>EASTBOUNDlottr_ampk</t>
-  </si>
-  <si>
-    <t>EASTBOUNDlottr_midday</t>
-  </si>
-  <si>
-    <t>EASTBOUNDlottr_pmpk</t>
-  </si>
-  <si>
-    <t>EASTBOUNDlottr_wknd</t>
-  </si>
-  <si>
-    <t>WESTBOUND_calc_len</t>
-  </si>
-  <si>
-    <t>WESTBOUNDff_speed</t>
-  </si>
-  <si>
-    <t>WESTBOUNDhavg_spd_worst4hrs</t>
-  </si>
-  <si>
-    <t>WESTBOUNDlottr_ampk</t>
-  </si>
-  <si>
-    <t>WESTBOUNDlottr_midday</t>
-  </si>
-  <si>
-    <t>WESTBOUNDlottr_pmpk</t>
-  </si>
-  <si>
-    <t>WESTBOUNDlottr_wknd</t>
-  </si>
-  <si>
-    <t>TrnVehStop_Acre</t>
-  </si>
-  <si>
-    <t>pct_roadmi_bikeways</t>
-  </si>
-  <si>
-    <t>Project's use of existing assets</t>
-  </si>
-  <si>
     <t>Infill project</t>
   </si>
   <si>
-    <t>EMPTOT_NetPclAcre</t>
-  </si>
-  <si>
-    <t>DU_TOT_NetPclAcre</t>
-  </si>
-  <si>
-    <t>job_du_perNetAcre</t>
-  </si>
-  <si>
-    <t>Pop_NonEJArea</t>
-  </si>
-  <si>
-    <t>Pop_EJArea</t>
-  </si>
-  <si>
-    <t>Pct_PopEJArea</t>
-  </si>
-  <si>
-    <t>WALKDESTSalljob_EJ</t>
-  </si>
-  <si>
-    <t>BIKEDESTSalljob_EJ</t>
-  </si>
-  <si>
-    <t>AUTODESTSalljob_EJ</t>
-  </si>
-  <si>
-    <t>TRANDESTSalljob_EJ</t>
-  </si>
-  <si>
-    <t>WALKDESTSlowjobs_EJ</t>
-  </si>
-  <si>
-    <t>BIKEDESTSlowjobs_EJ</t>
-  </si>
-  <si>
-    <t>AUTODESTSlowjobs_EJ</t>
-  </si>
-  <si>
-    <t>TRANDESTSlowjob_EJ</t>
-  </si>
-  <si>
-    <t>WALKDESTSedu_EJ</t>
-  </si>
-  <si>
-    <t>BIKEDESTSedu_EJ</t>
-  </si>
-  <si>
-    <t>AUTODESTSedu_EJ</t>
-  </si>
-  <si>
-    <t>TRANDESTSedu_EJ</t>
-  </si>
-  <si>
-    <t>WALKDESTSpoi2_EJ</t>
-  </si>
-  <si>
-    <t>BIKEDESTSpoi2_EJ</t>
-  </si>
-  <si>
-    <t>AUTODESTSpoi2_EJ</t>
-  </si>
-  <si>
-    <t>TRANDESTSpoi2_EJ</t>
-  </si>
-  <si>
-    <t>POP_TOT</t>
-  </si>
-  <si>
-    <t>DU_TOT</t>
-  </si>
-  <si>
-    <t>EMPTOT</t>
-  </si>
-  <si>
-    <t>ENR_K12</t>
-  </si>
-  <si>
-    <t>EMPIND</t>
-  </si>
-  <si>
-    <t>PT_TOT_RES</t>
-  </si>
-  <si>
-    <t>SOV_TOT_RES</t>
-  </si>
-  <si>
-    <t>HOV_TOT_RES</t>
-  </si>
-  <si>
-    <t>TRN_TOT_RES</t>
-  </si>
-  <si>
-    <t>BIK_TOT_RES</t>
-  </si>
-  <si>
-    <t>WLK_TOT_RES</t>
-  </si>
-  <si>
-    <t>EMPIND_jobshare</t>
-  </si>
-  <si>
-    <t>SOV_TOT_RES_share</t>
-  </si>
-  <si>
-    <t>HOV_TOT_RES_share</t>
-  </si>
-  <si>
-    <t>TRN_TOT_RES_share</t>
-  </si>
-  <si>
-    <t>BIK_TOT_RES_share</t>
-  </si>
-  <si>
-    <t>WLK_TOT_RES_share</t>
-  </si>
-  <si>
-    <t>SUM_JOB_DU</t>
-  </si>
-  <si>
-    <t>avg_2way_trantrips</t>
-  </si>
-  <si>
-    <t>avg_2way_vehocc</t>
-  </si>
-  <si>
-    <t>mix_index</t>
-  </si>
-  <si>
-    <t>High Density</t>
-  </si>
-  <si>
-    <t>Low Density</t>
-  </si>
-  <si>
-    <t>Med-High Density</t>
-  </si>
-  <si>
-    <t>Medium Density</t>
-  </si>
-  <si>
-    <t>Mixed Use</t>
-  </si>
-  <si>
-    <t>Very Low or Rural Res Density</t>
-  </si>
-  <si>
-    <t>nat_resource_acres</t>
+    <t>Small-Town Established Communities_2016</t>
+  </si>
+  <si>
+    <t>Small-Town Established Communities_2040</t>
+  </si>
+  <si>
+    <t>test_project_YubaCity</t>
+  </si>
+  <si>
+    <t>Freeway</t>
+  </si>
+  <si>
+    <t>Small-Town Established Communities</t>
+  </si>
+  <si>
+    <t>Safety Data</t>
+  </si>
+  <si>
+    <t>Map 1</t>
+  </si>
+  <si>
+    <t>&lt;insert Map1 here&gt;</t>
+  </si>
+  <si>
+    <t>Accessibility Data</t>
+  </si>
+  <si>
+    <t>&lt;insert Map2 here&gt;</t>
   </si>
 </sst>
 </file>
@@ -423,7 +444,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -904,7 +925,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -912,7 +933,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1151,10 +1176,10 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9547</c:v>
+                  <c:v>5797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20414</c:v>
+                  <c:v>6115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,10 +1292,10 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8057</c:v>
+                  <c:v>1916</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14977.317862130019</c:v>
+                  <c:v>2072.611115859987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,7 +1675,7 @@
                   <c:v>projval_2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Urban core_2016</c:v>
+                  <c:v>Small-Town Established Communities_2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>REGION_2016</c:v>
@@ -1665,7 +1690,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.2727272727272731E-2</c:v>
+                  <c:v>3.5714285714285719E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7369826435246991E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.022900763358779E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,7 +1797,7 @@
                   <c:v>projval_2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Urban core_2016</c:v>
+                  <c:v>Small-Town Established Communities_2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>REGION_2016</c:v>
@@ -1781,10 +1812,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.34090909090909088</c:v>
+                  <c:v>5.3571428571428568E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18221330658642601</c:v>
+                  <c:v>0.13484646194926569</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1221919302071974</c:v>
@@ -2100,6 +2131,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Job Accessibility from Project</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2236,16 +2292,16 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>92854.563555555549</c:v>
+                  <c:v>1013.770763052209</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>207146.5845185185</c:v>
+                  <c:v>2709.1952208835341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>757689.54114814801</c:v>
+                  <c:v>45512.183253012037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>191657.2242592593</c:v>
+                  <c:v>6491.7790361445777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,16 +2412,16 @@
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>64913.702561223843</c:v>
+                  <c:v>1364.000856776242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213458.71280866361</c:v>
+                  <c:v>7127.5982283250496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>775596.88072927925</c:v>
+                  <c:v>115470.05312773889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>163632.28779498761</c:v>
+                  <c:v>3942.7378655082048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4332,16 +4388,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4370,14 +4426,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -4749,14 +4805,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J76" sqref="J76"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -4766,54 +4822,54 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>17000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -4821,30 +4877,30 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>92854.563555555549</v>
+        <v>1013.770763052209</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>64913.702561223843</v>
+        <v>1364.000856776242</v>
       </c>
       <c r="E8" s="2">
         <v>3842.410877719361</v>
@@ -4852,14 +4908,14 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>207146.5845185185</v>
+        <v>2709.1952208835341</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>213458.71280866361</v>
+        <v>7127.5982283250496</v>
       </c>
       <c r="E9" s="2">
         <v>37354.023709342597</v>
@@ -4867,14 +4923,14 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>757689.54114814801</v>
+        <v>45512.183253012037</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>775596.88072927925</v>
+        <v>115470.05312773889</v>
       </c>
       <c r="E10" s="2">
         <v>475047.24569611409</v>
@@ -4882,14 +4938,14 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>191657.2242592593</v>
+        <v>6491.7790361445777</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>163632.28779498761</v>
+        <v>3942.7378655082048</v>
       </c>
       <c r="E11" s="2">
         <v>22213.193547074628</v>
@@ -4897,14 +4953,14 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>16.790111111111109</v>
+        <v>1.2211646586345379</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>15.14818713822276</v>
+        <v>2.8359657898456958</v>
       </c>
       <c r="E12" s="2">
         <v>4.6382414187566914</v>
@@ -4912,14 +4968,14 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>110.2168518518519</v>
+        <v>5.2928514056224891</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>116.9279552827428</v>
+        <v>11.725412674938291</v>
       </c>
       <c r="E13" s="2">
         <v>38.186082797940898</v>
@@ -4927,14 +4983,14 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>791.57796296296294</v>
+        <v>94.170281124498004</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>822.9540932510655</v>
+        <v>163.7723231043594</v>
       </c>
       <c r="E14" s="2">
         <v>492.55290133648589</v>
@@ -4942,14 +4998,14 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>87.850925925925921</v>
+        <v>10.89180722891566</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>67.712183067234903</v>
+        <v>6.3673234849555804</v>
       </c>
       <c r="E15" s="2">
         <v>19.46065842045931</v>
@@ -4957,14 +5013,14 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>96.717851851851847</v>
+        <v>7.5514457831325306</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>84.084850518414882</v>
+        <v>9.6835892389165004</v>
       </c>
       <c r="E16" s="2">
         <v>17.147198276435411</v>
@@ -4972,14 +5028,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>461.61322222222219</v>
+        <v>19.925100401606429</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>485.22723490872079</v>
+        <v>43.011998510238037</v>
       </c>
       <c r="E17" s="2">
         <v>140.10012353515299</v>
@@ -4987,14 +5043,14 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>1143.1629629629631</v>
+        <v>238.27309236947789</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>1297.8727816296671</v>
+        <v>144.64461021519989</v>
       </c>
       <c r="E18" s="2">
         <v>520.32769799543757</v>
@@ -5002,14 +5058,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
-        <v>401.44440740740743</v>
+        <v>51.080883534136547</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>319.47467432097193</v>
+        <v>25.241365850741079</v>
       </c>
       <c r="E19" s="2">
         <v>77.938922900995635</v>
@@ -5017,14 +5073,14 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>2991</v>
+        <v>1498</v>
       </c>
       <c r="E20" s="2">
         <v>55020</v>
@@ -5032,14 +5088,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3">
-        <v>208.59307085602271</v>
+        <v>41.285465803940781</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
-        <v>98.521209831402842</v>
+        <v>61.135362311155802</v>
       </c>
       <c r="E21">
         <v>63.369834818958772</v>
@@ -5047,14 +5103,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <v>1113</v>
@@ -5062,14 +5118,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B23" s="3">
-        <v>4.7407516103641516</v>
+        <v>1.474480921569314</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>0.72466286067899111</v>
+        <v>1.6732642555122741</v>
       </c>
       <c r="E23">
         <v>1.2819088722919141</v>
@@ -5077,25 +5133,29 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2727272727272731E-2</v>
+        <v>3.5714285714285719E-2</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1">
+        <v>2.7369826435246991E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.022900763358779E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B25" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>545</v>
+        <v>202</v>
       </c>
       <c r="E25">
         <v>6723</v>
@@ -5103,14 +5163,14 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>19.342266570285741</v>
+        <v>2.1232525270598122</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4">
-        <v>3.3821897544729942</v>
+        <v>0.28524510017006321</v>
       </c>
       <c r="E26" s="5">
         <v>0.40140092908768138</v>
@@ -5118,14 +5178,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>0.34090909090909088</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <v>0.18221330658642601</v>
+        <v>0.13484646194926569</v>
       </c>
       <c r="E27" s="1">
         <v>0.1221919302071974</v>
@@ -5133,56 +5193,62 @@
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>7.8499999999999988</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2">
-        <v>647.51738292440052</v>
+        <v>1175.845221386116</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>145.36370361752071</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>0.1236248623319337</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B34" s="5">
-        <v>0.40135303925593119</v>
+        <v>0.1021114271418558</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5">
-        <v>0.37846124650969087</v>
+        <v>5.8844134774233253E-2</v>
       </c>
       <c r="E34" s="5">
         <v>1.480071598380431E-2</v>
@@ -5190,181 +5256,209 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="B49" s="7">
+        <v>7460.2525126650989</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="B50" s="7">
+        <v>63.359266107107317</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="B51" s="7">
+        <v>39.857150159123393</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1.1478152403679189</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1.162867114075685</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1.323087321541778</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="B55" s="7">
+        <v>1.2010105753672351</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="B56" s="7">
+        <v>7460.2525126827086</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="B57" s="7">
+        <v>66.431990942696686</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="B58" s="7">
+        <v>54.409268026535017</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="B59" s="7">
+        <v>1.081819835884438</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="B60" s="7">
+        <v>1.091630634013671</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1.10910333948567</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1.0947187607200981</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2">
-        <v>28.324821823755251</v>
+        <v>1.872619731652339</v>
       </c>
       <c r="D63">
-        <v>8.4758271414273931</v>
+        <v>7.4149284958128156E-2</v>
       </c>
       <c r="E63">
         <v>7.332683167880813E-2</v>
@@ -5372,13 +5466,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2">
-        <v>0.22328102699331609</v>
+        <v>0.33368336973414081</v>
       </c>
       <c r="D64">
-        <v>0.21897373041792781</v>
+        <v>9.9496332560479198E-2</v>
       </c>
       <c r="E64">
         <v>0.1052465714535069</v>
@@ -5386,37 +5480,37 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
-        <v>133.31693286111789</v>
+        <v>1.3624389724527719</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2">
-        <v>12.84264467551969</v>
+        <v>1.475654647382425</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2">
-        <v>146.15957753663761</v>
+        <v>2.8380936198351971</v>
       </c>
       <c r="D68">
-        <v>76.496718835236877</v>
+        <v>1.4432109489386511</v>
       </c>
       <c r="E68">
         <v>0.38506745756398192</v>
@@ -5424,29 +5518,29 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2">
-        <v>3954</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2">
-        <v>5593</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2">
-        <v>0.58583848329318111</v>
+        <v>0.69863722615145762</v>
       </c>
       <c r="D71">
-        <v>0.56192450973501085</v>
+        <v>0.34730153421679688</v>
       </c>
       <c r="E71">
         <v>0.3746385676273582</v>
@@ -5454,265 +5548,265 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2">
-        <v>92854.563555555549</v>
+        <v>1013.770763052209</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>207146.5845185185</v>
+        <v>2709.1952208835341</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2">
-        <v>757689.54114814801</v>
+        <v>45512.183253012037</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>191657.2242592593</v>
+        <v>6491.7790361445777</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>9950.0181851851848</v>
+        <v>272.66024096385541</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>32086.665814814809</v>
+        <v>795.25333333333333</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2">
-        <v>166987.00055555551</v>
+        <v>12386.82514056225</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2">
-        <v>28538.28296296296</v>
+        <v>1514.9185542168671</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2">
-        <v>16.790111111111109</v>
+        <v>1.2211646586345379</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2">
-        <v>110.2168518518519</v>
+        <v>5.2928514056224891</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B82" s="2">
-        <v>791.57796296296294</v>
+        <v>94.170281124498004</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2">
-        <v>87.850925925925921</v>
+        <v>10.89180722891566</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2">
-        <v>96.717851851851847</v>
+        <v>7.5514457831325306</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>461.61322222222219</v>
+        <v>19.925100401606429</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>1143.1629629629631</v>
+        <v>238.27309236947789</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>401.44440740740743</v>
+        <v>51.080883534136547</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>9547</v>
+        <v>5797</v>
       </c>
       <c r="C88" s="2">
-        <v>20414</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>8057</v>
+        <v>1916</v>
       </c>
       <c r="C89" s="2">
-        <v>14977.317862130019</v>
+        <v>2072.611115859987</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>83638.109999999782</v>
+        <v>1769</v>
       </c>
       <c r="C90" s="2">
-        <v>89060.149999999776</v>
+        <v>2761.6599999999989</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="C91" s="2">
-        <v>0</v>
+        <v>796</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>444.63000000000011</v>
+        <v>125.11</v>
       </c>
       <c r="C92" s="2">
-        <v>85.119999999999948</v>
+        <v>134.03</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>32494</v>
+        <v>19593</v>
       </c>
       <c r="C93" s="2">
-        <v>70803</v>
+        <v>21044</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2">
-        <v>8162</v>
+        <v>6806</v>
       </c>
       <c r="C94" s="2">
-        <v>13736</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2">
-        <v>5813</v>
+        <v>10373</v>
       </c>
       <c r="C95" s="2">
-        <v>11621</v>
+        <v>10477</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B96" s="2">
-        <v>2745</v>
+        <v>184</v>
       </c>
       <c r="C96" s="2">
-        <v>7720</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2">
-        <v>3476</v>
+        <v>381</v>
       </c>
       <c r="C97" s="2">
-        <v>7145</v>
+        <v>429</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2">
-        <v>12189</v>
+        <v>1526</v>
       </c>
       <c r="C98" s="2">
-        <v>30404</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B99" s="1">
-        <v>5.3161172580298774E-3</v>
+        <v>7.072357263990954E-2</v>
       </c>
       <c r="C99" s="1">
-        <v>9.5575855194495135E-4</v>
+        <v>4.853240442342649E-2</v>
       </c>
       <c r="D99" s="1">
-        <v>1.658995536479136E-2</v>
+        <v>0.1343871705182399</v>
       </c>
       <c r="E99" s="1">
         <v>0.13021497769289109</v>
@@ -5720,110 +5814,110 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B100">
-        <v>0.25118483412322268</v>
+        <v>0.34736895830143422</v>
       </c>
       <c r="C100">
-        <v>0.19400307896558061</v>
+        <v>0.36404675917126023</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.17889456515048929</v>
+        <v>0.5294237737967642</v>
       </c>
       <c r="C101">
-        <v>0.16413146335607251</v>
+        <v>0.49786162326553879</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B102">
-        <v>8.4477134240167409E-2</v>
+        <v>9.3911090695656604E-3</v>
       </c>
       <c r="C102">
-        <v>0.1090349278985354</v>
+        <v>1.397072799847938E-2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B103">
-        <v>0.1069735951252539</v>
+        <v>1.9445720410350639E-2</v>
       </c>
       <c r="C103">
-        <v>0.1009138030874398</v>
+        <v>2.0385858201862759E-2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B104">
-        <v>0.3751154059210931</v>
+        <v>7.7884958913897823E-2</v>
       </c>
       <c r="C104">
-        <v>0.42941683262008667</v>
+        <v>8.6818095419121846E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2">
-        <v>91695.109999999782</v>
+        <v>3685</v>
       </c>
       <c r="C105" s="2">
-        <v>104037.46786212979</v>
+        <v>4834.2711158599859</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B106">
-        <v>950.28939423820657</v>
+        <v>13.047842643653521</v>
       </c>
       <c r="C106">
-        <v>2373.0977262046781</v>
+        <v>69.301955921047991</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B107">
-        <v>1.242250809753066</v>
+        <v>1.3710956366053659</v>
       </c>
       <c r="C107">
-        <v>1.2624167558911259</v>
+        <v>1.3582230858271871</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B108" s="5">
-        <v>0.22498669218744211</v>
+        <v>0.68447077769432152</v>
       </c>
       <c r="C108" s="5">
-        <v>0.42142437760519452</v>
+        <v>0.68192319179405259</v>
       </c>
       <c r="D108" s="5">
-        <v>0.22767566428252109</v>
+        <v>0.62622069700880123</v>
       </c>
       <c r="E108" s="5">
         <v>0.99998912009623475</v>
       </c>
       <c r="F108" s="5">
-        <v>0.35973431030552788</v>
+        <v>0.65824713128427348</v>
       </c>
       <c r="G108" s="5">
         <v>0.93085349575304976</v>
@@ -5831,79 +5925,79 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2">
-        <v>12248</v>
+        <v>286</v>
       </c>
       <c r="C109" s="2">
-        <v>23718.891864799989</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2">
-        <v>426</v>
+        <v>2616</v>
       </c>
       <c r="C110" s="2">
-        <v>413.42000000000093</v>
+        <v>2720.6935227499798</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2">
-        <v>2806</v>
+        <v>434</v>
       </c>
       <c r="C111" s="2">
-        <v>3572.4139592399988</v>
+        <v>626.72434688000021</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2">
-        <v>1112</v>
+        <v>757</v>
       </c>
       <c r="C112" s="2">
-        <v>1070.390225459998</v>
+        <v>832.51186869999992</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2">
-        <v>2847</v>
+        <v>27</v>
       </c>
       <c r="C113" s="2">
-        <v>13953.954183249991</v>
+        <v>99.321348959999995</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2">
-        <v>19</v>
+        <v>567</v>
       </c>
       <c r="C114" s="2">
-        <v>14.03</v>
+        <v>583.34135052999795</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B115" s="6">
-        <v>0</v>
+        <v>145.36370361752071</v>
       </c>
       <c r="C115" s="6">
-        <v>0</v>
+        <v>120.6959734688332</v>
       </c>
     </row>
   </sheetData>
@@ -5913,27 +6007,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECCAFD4-91AA-4A54-9D7E-20D5302EC54C}">
-  <dimension ref="B4:B22"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="str">
+        <f>import!B2</f>
+        <v>test_project_YubaCity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="str">
+        <f>import!B7</f>
+        <v>Small-Town Established Communities</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>1</v>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5950,7 +6085,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
